--- a/network/docker-ports.xlsx
+++ b/network/docker-ports.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1EE228-9E00-40B5-AB1C-DCBC49AED67D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFA364E-AA8E-41D3-A751-66E81A8F4448}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>Org</t>
   </si>
@@ -134,6 +134,36 @@
   </si>
   <si>
     <t>cli1.org2</t>
+  </si>
+  <si>
+    <t>ca3.example.com</t>
+  </si>
+  <si>
+    <t>org3</t>
+  </si>
+  <si>
+    <t>peer0.org3.example.com</t>
+  </si>
+  <si>
+    <t>peer1.org3.example.com</t>
+  </si>
+  <si>
+    <t>11051, 11053</t>
+  </si>
+  <si>
+    <t>12051, 12053</t>
+  </si>
+  <si>
+    <t>couchdb0.org3</t>
+  </si>
+  <si>
+    <t>couchdb1.org3</t>
+  </si>
+  <si>
+    <t>cli0.org3</t>
+  </si>
+  <si>
+    <t>cli1.org3</t>
   </si>
 </sst>
 </file>
@@ -466,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,47 +572,47 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3">
-        <v>7050</v>
+        <v>9054</v>
       </c>
       <c r="F4" s="3">
-        <v>7050</v>
+        <v>7054</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7050</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7050</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -594,7 +624,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -602,19 +632,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>19</v>
@@ -622,7 +652,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -634,7 +664,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -642,79 +672,79 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3">
-        <v>5984</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5984</v>
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3">
-        <v>6984</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5984</v>
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="3">
-        <v>7984</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5984</v>
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="3">
-        <v>8984</v>
+        <v>5984</v>
       </c>
       <c r="F12" s="3">
         <v>5984</v>
@@ -722,57 +752,185 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6984</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5984</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7984</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5984</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8984</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5984</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3">
+        <v>9984</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10984</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
         <v>34</v>
       </c>
     </row>
